--- a/experiments_results/[3] FullFactDesign_ANOVA_results.xlsx
+++ b/experiments_results/[3] FullFactDesign_ANOVA_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>sum_sq</t>
   </si>
@@ -28,7 +28,7 @@
     <t>PR(&gt;F)</t>
   </si>
   <si>
-    <t>max_depth</t>
+    <t>min_samples_leaf</t>
   </si>
   <si>
     <t>min_weight_fraction_leaf</t>
@@ -37,25 +37,13 @@
     <t>max_features</t>
   </si>
   <si>
-    <t>min_samples_leaf</t>
-  </si>
-  <si>
-    <t>max_depth:min_weight_fraction_leaf</t>
-  </si>
-  <si>
-    <t>max_depth:max_features</t>
-  </si>
-  <si>
-    <t>max_depth:min_samples_leaf</t>
+    <t>min_samples_leaf:min_weight_fraction_leaf</t>
+  </si>
+  <si>
+    <t>min_samples_leaf:max_features</t>
   </si>
   <si>
     <t>min_weight_fraction_leaf:max_features</t>
-  </si>
-  <si>
-    <t>min_weight_fraction_leaf:min_samples_leaf</t>
-  </si>
-  <si>
-    <t>max_features:min_samples_leaf</t>
   </si>
   <si>
     <t>Residual</t>
@@ -416,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.789367396500321E-10</v>
+        <v>1045.296</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>8.685334249581812E-13</v>
+        <v>9.464</v>
       </c>
       <c r="E2">
-        <v>0.9999999999991313</v>
+        <v>0.005955801935382763</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>8.843903804109946E-10</v>
+        <v>33820.942</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2.753752005068084E-12</v>
+        <v>306.206</v>
       </c>
       <c r="E3">
-        <v>0.9999999999972461</v>
+        <v>1.360934806132981E-13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-1.154892293466597E-10</v>
+        <v>3509.589</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>-3.596021665560601E-13</v>
+        <v>31.775</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.619632069649968E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-1.671751540019466E-09</v>
+        <v>1494.239</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>-5.205381308155881E-12</v>
+        <v>13.528</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.001491337832162908</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>151397.9098782255</v>
+        <v>0.917</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>235.7060338538127</v>
+        <v>0.008304142741944997</v>
       </c>
       <c r="E6">
-        <v>7.047484377162446E-06</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>232087.0061419125</v>
+        <v>1858.979</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>361.328024744306</v>
+        <v>16.831</v>
       </c>
       <c r="E7">
-        <v>2.436512257509681E-06</v>
+        <v>0.0005535449846343956</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,78 +531,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>320024.2994196221</v>
+        <v>2209.032</v>
       </c>
       <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>498.2344763789434</v>
-      </c>
-      <c r="E8">
-        <v>1.094614175025478E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>137500.7308464286</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>214.0700089313027</v>
-      </c>
-      <c r="E9">
-        <v>8.950091839457291E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>167442.4800738147</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>260.6852558835835</v>
-      </c>
-      <c r="E10">
-        <v>5.48750940444919E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>297456.5684960341</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>463.0995768723552</v>
-      </c>
-      <c r="E11">
-        <v>1.31339261748317E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>802.8958115902752</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
